--- a/examples/wangetal2018/out/ResultFiles/PL_0.5_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_0.5_b.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="178">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -171,12 +171,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -231,6 +231,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -333,9 +339,6 @@
     <t>Electric power (kW)</t>
   </si>
   <si>
-    <t>Supply compressor</t>
-  </si>
-  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -408,16 +411,16 @@
     <t>PI03</t>
   </si>
   <si>
-    <t>PI04_pre_loop_cxn</t>
+    <t>PI04</t>
+  </si>
+  <si>
+    <t>PI05_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_1_loop</t>
   </si>
   <si>
-    <t>PI04_post_loop_cxn</t>
-  </si>
-  <si>
-    <t>PI05</t>
+    <t>PI05_post_loop_cxn</t>
   </si>
   <si>
     <t>PI06_pre_loop_cxn</t>
@@ -453,12 +456,12 @@
     <t>N04</t>
   </si>
   <si>
+    <t>N05</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
-    <t>N05</t>
-  </si>
-  <si>
     <t>N06_C</t>
   </si>
   <si>
@@ -516,7 +519,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -526,9 +529,6 @@
   </si>
   <si>
     <t>Total cost ($)</t>
-  </si>
-  <si>
-    <t>Supply compressor from_node</t>
   </si>
   <si>
     <t>Node</t>
@@ -1158,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,10 +1180,10 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.2407293079678441</v>
+        <v>0.2638982914835435</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1191,10 +1191,10 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.03421829200333626</v>
+        <v>0.0703958137813657</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1213,10 +1213,10 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03093841879447762</v>
+        <v>0.03106142847345636</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1224,10 +1224,10 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.006068239020945569</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1235,10 +1235,10 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.006393221333913737</v>
+        <v>0.006418640477314341</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1246,10 +1246,10 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.0166728317129211</v>
+        <v>0.01906177501619561</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1268,10 +1268,10 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.01974537410431309</v>
+        <v>0.02253462569853349</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1279,10 +1279,10 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.09680179635774674</v>
+        <v>0.07479877717094516</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1312,10 +1312,10 @@
         <v>49</v>
       </c>
       <c r="B14">
-        <v>0.001321807967794006</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1323,10 +1323,10 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.002771585699201614</v>
+        <v>0.004408594693365441</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1334,10 +1334,10 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.02485096297898197</v>
+        <v>0.03430157686510901</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1345,10 +1345,10 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.0009467779942124991</v>
+        <v>0.0009170593072584356</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1359,7 +1359,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1370,7 +1370,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1381,7 +1381,7 @@
         <v>13.54723404173073</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1392,7 +1392,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1403,7 +1403,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1411,10 +1411,10 @@
         <v>58</v>
       </c>
       <c r="B23">
-        <v>64.10531211014438</v>
+        <v>129.6652997229703</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1422,10 +1422,10 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>39.83318189119252</v>
+        <v>80.57025695416179</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>60</v>
       </c>
       <c r="B26">
-        <v>300.9563774400484</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>3770.089976298428</v>
+        <v>2913.149659014491</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>157.0870823457678</v>
+        <v>121.3812357922704</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>63</v>
       </c>
       <c r="B30">
-        <v>56128030.69648626</v>
+        <v>115012488.43889</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>64</v>
       </c>
       <c r="B31">
-        <v>9953691.026075777</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1510,7 +1510,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1521,7 +1521,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1529,209 +1529,194 @@
         <v>67</v>
       </c>
       <c r="B34">
-        <v>27348332</v>
+        <v>31143076</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>24.24086700823207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>700</v>
-      </c>
-      <c r="B46">
-        <v>6.651106559435965</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="G46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D46" t="s">
+      <c r="H46" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E46">
-        <v>3978176.984599488</v>
-      </c>
-      <c r="F46">
-        <v>2107124.717562967</v>
-      </c>
-      <c r="G46">
-        <v>898512.6315963469</v>
-      </c>
-      <c r="H46">
-        <v>123878.61201372</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
+        <v>700</v>
+      </c>
+      <c r="B47">
+        <v>32.07052964295256</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47">
+        <v>19182107.78453216</v>
+      </c>
+      <c r="F47">
+        <v>8899852.945399495</v>
+      </c>
+      <c r="G47">
+        <v>3842986.064730738</v>
+      </c>
+      <c r="H47">
+        <v>604230.7712990289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
         <v>650</v>
       </c>
-      <c r="B47">
-        <v>57.45420555070842</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47">
-        <v>28073742.52666603</v>
-      </c>
-      <c r="F47">
-        <v>13878801.13929272</v>
-      </c>
-      <c r="G47">
-        <v>6036954.261805918</v>
-      </c>
-      <c r="H47">
-        <v>1030839.822949078</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="2" t="s">
+      <c r="B48">
+        <v>91.89586671964408</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>101</v>
+      <c r="E48">
+        <v>44902907.92159942</v>
+      </c>
+      <c r="F48">
+        <v>21337990.79247553</v>
+      </c>
+      <c r="G48">
+        <v>9316379.467365684</v>
+      </c>
+      <c r="H48">
+        <v>1654460.462727767</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>650</v>
+      </c>
+      <c r="B49">
+        <v>5.698903360373681</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49">
+        <v>2784644.641588119</v>
+      </c>
+      <c r="F49">
+        <v>1672278.6961793</v>
+      </c>
+      <c r="G49">
+        <v>714112.1395506071</v>
+      </c>
+      <c r="H49">
+        <v>100536.7514421188</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B53">
-        <v>0.2244234817079897</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>300.9563774400484</v>
-      </c>
-      <c r="E53">
-        <v>9953691.026075777</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>2.144990742886482</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
+      <c r="H54" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B54">
-        <v>6.240203529500931</v>
-      </c>
-      <c r="C54">
-        <v>12.5</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G54">
-        <v>59.64250577808644</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1739,7 +1724,7 @@
         <v>104</v>
       </c>
       <c r="B55">
-        <v>5.11366328414039</v>
+        <v>4.329469691141295</v>
       </c>
       <c r="C55">
         <v>12.5</v>
@@ -1754,7 +1739,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G55">
-        <v>48.87527955292891</v>
+        <v>41.38012804377173</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1765,7 +1750,7 @@
         <v>105</v>
       </c>
       <c r="B56">
-        <v>5.081649315414824</v>
+        <v>3.290073783676666</v>
       </c>
       <c r="C56">
         <v>12.5</v>
@@ -1780,9 +1765,35 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>48.5692970147525</v>
+        <v>31.44580841403419</v>
       </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57">
+        <v>5.080184783152164</v>
+      </c>
+      <c r="C57">
+        <v>12.5</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G57">
+        <v>48.55529933446453</v>
+      </c>
+      <c r="H57">
         <v>0</v>
       </c>
     </row>
@@ -1801,58 +1812,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1860,55 +1871,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F2">
-        <v>46.06544601574358</v>
+        <v>45.99112260571709</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2">
         <v>8.758481331682836</v>
       </c>
       <c r="L2">
-        <v>6.651106559435965</v>
+        <v>32.07052964295256</v>
       </c>
       <c r="M2">
-        <v>4.132804733943285</v>
+        <v>19.92769707477107</v>
       </c>
       <c r="N2">
-        <v>8758481.331682835</v>
+        <v>8700000</v>
       </c>
       <c r="O2">
-        <v>8727815.15089228</v>
+        <v>8550636.795147974</v>
       </c>
       <c r="P2">
-        <v>4.282001852112709</v>
+        <v>4.361215457439502</v>
       </c>
       <c r="Q2">
-        <v>0.00696579192013626</v>
+        <v>0.00710037583314457</v>
       </c>
       <c r="R2">
-        <v>21.13976257855634</v>
+        <v>21.35163525326402</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1916,55 +1927,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3">
-        <v>53.5281050281411</v>
+        <v>53.4418036183251</v>
       </c>
       <c r="G3">
         <v>700</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I3">
         <v>15.875</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K3">
         <v>9.479348269320552</v>
       </c>
       <c r="L3">
-        <v>6.651106559435965</v>
+        <v>32.07052964295256</v>
       </c>
       <c r="M3">
-        <v>4.132804733943285</v>
+        <v>19.92769707477107</v>
       </c>
       <c r="N3">
-        <v>8758481.331682835</v>
+        <v>8700000</v>
       </c>
       <c r="O3">
-        <v>8727815.15089228</v>
+        <v>8550636.795147974</v>
       </c>
       <c r="P3">
-        <v>4.433315340909019</v>
+        <v>4.51533340696271</v>
       </c>
       <c r="Q3">
-        <v>0.007211942742594434</v>
+        <v>0.007351291059628438</v>
       </c>
       <c r="R3">
-        <v>21.13976257855634</v>
+        <v>21.35163525326402</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1972,55 +1983,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F4">
-        <v>99.59369514790423</v>
+        <v>99.43306994033647</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>8.758481331682836</v>
       </c>
       <c r="L4">
-        <v>33.34889344056403</v>
+        <v>7.929470357047443</v>
       </c>
       <c r="M4">
-        <v>20.72203526605671</v>
+        <v>4.927142925228927</v>
       </c>
       <c r="N4">
-        <v>8727815.15089228</v>
+        <v>8550636.795147974</v>
       </c>
       <c r="O4">
-        <v>8006181.421302268</v>
+        <v>8381544.555242552</v>
       </c>
       <c r="P4">
-        <v>10.06920527767593</v>
+        <v>9.614075172817062</v>
       </c>
       <c r="Q4">
-        <v>0.01643454037147607</v>
+        <v>0.01566452655497848</v>
       </c>
       <c r="R4">
-        <v>22.04678776334121</v>
+        <v>21.56016735547595</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2028,31 +2039,31 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F5">
-        <v>99.59367240513693</v>
+        <v>99.4330584000413</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>8.758481331682836</v>
@@ -2064,19 +2075,19 @@
         <v>18.64113</v>
       </c>
       <c r="N5">
-        <v>8006181.421302268</v>
+        <v>8381544.555242552</v>
       </c>
       <c r="O5">
-        <v>7297951.859094954</v>
+        <v>7709242.652340049</v>
       </c>
       <c r="P5">
-        <v>11.02193731817483</v>
+        <v>10.43048729619992</v>
       </c>
       <c r="Q5">
-        <v>0.01804970630641629</v>
+        <v>0.01704785265084099</v>
       </c>
       <c r="R5">
-        <v>23.06623411518258</v>
+        <v>22.45694267517919</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2084,31 +2095,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F6">
-        <v>52.7366018305792</v>
+        <v>55.04368274392632</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>8.758481331682836</v>
@@ -2123,16 +2134,16 @@
         <v>8758481.331682835</v>
       </c>
       <c r="O6">
-        <v>8568001.489479879</v>
+        <v>8551289.063336279</v>
       </c>
       <c r="P6">
-        <v>4.990976976300991</v>
+        <v>5.219222471791478</v>
       </c>
       <c r="Q6">
-        <v>0.008125029763545524</v>
+        <v>0.008497248342362911</v>
       </c>
       <c r="R6">
-        <v>21.33057565800074</v>
+        <v>21.35084301705652</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2140,55 +2151,55 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F7">
-        <v>35.07827086236514</v>
+        <v>37.38535176852008</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>8.758481331682836</v>
       </c>
       <c r="L7">
-        <v>20.28538270615473</v>
+        <v>48.5</v>
       </c>
       <c r="M7">
-        <v>12.60474853750607</v>
+        <v>30.1364935</v>
       </c>
       <c r="N7">
-        <v>8568001.489479879</v>
+        <v>8551289.063336279</v>
       </c>
       <c r="O7">
-        <v>8511464.339344067</v>
+        <v>8397309.979201963</v>
       </c>
       <c r="P7">
-        <v>3.341249818359103</v>
+        <v>3.608107665252088</v>
       </c>
       <c r="Q7">
-        <v>0.005440770580048894</v>
+        <v>0.005878382573573595</v>
       </c>
       <c r="R7">
-        <v>21.39938292619814</v>
+        <v>21.54045504602512</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2196,55 +2207,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
         <v>154</v>
       </c>
       <c r="F8">
-        <v>46.5883665314097</v>
+        <v>37.38535175785896</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8">
         <v>8.758481331682836</v>
       </c>
       <c r="L8">
-        <v>51.78538270615473</v>
+        <v>11.89586671964408</v>
       </c>
       <c r="M8">
-        <v>32.17793503750607</v>
+        <v>7.391746599451961</v>
       </c>
       <c r="N8">
-        <v>8758481.331682835</v>
+        <v>8397309.979201963</v>
       </c>
       <c r="O8">
-        <v>8511464.339344067</v>
+        <v>8359121.154769378</v>
       </c>
       <c r="P8">
-        <v>4.437601055310697</v>
+        <v>3.624154488146958</v>
       </c>
       <c r="Q8">
-        <v>0.007226029354364629</v>
+        <v>0.005905560890423973</v>
       </c>
       <c r="R8">
-        <v>21.39938292619814</v>
+        <v>21.58830179701798</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2252,55 +2263,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F9">
-        <v>81.66664144157494</v>
+        <v>44.20282285686235</v>
       </c>
       <c r="G9">
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>8.758481331682836</v>
       </c>
       <c r="L9">
-        <v>28.21461729384527</v>
+        <v>91.89586671964408</v>
       </c>
       <c r="M9">
-        <v>17.53174496249393</v>
+        <v>57.10142659945196</v>
       </c>
       <c r="N9">
-        <v>8511464.339344067</v>
+        <v>8758481.331682835</v>
       </c>
       <c r="O9">
-        <v>8094470.943925084</v>
+        <v>8359121.154769378</v>
       </c>
       <c r="P9">
-        <v>8.168846612472258</v>
+        <v>4.285043523375908</v>
       </c>
       <c r="Q9">
-        <v>0.01332739278642006</v>
+        <v>0.006982479783402428</v>
       </c>
       <c r="R9">
-        <v>21.92925419161072</v>
+        <v>21.58830179701798</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2308,55 +2319,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F10">
-        <v>81.66664092071338</v>
+        <v>81.58817852473526</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <v>8.758481331682836</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>38.10413328035592</v>
       </c>
       <c r="M10">
-        <v>31.06855</v>
+        <v>23.67680340054804</v>
       </c>
       <c r="N10">
-        <v>8094470.943925084</v>
+        <v>8359121.154769378</v>
       </c>
       <c r="O10">
-        <v>7298796.018164307</v>
+        <v>7781232.206703647</v>
       </c>
       <c r="P10">
-        <v>9.036855219334992</v>
+        <v>8.481209847593348</v>
       </c>
       <c r="Q10">
-        <v>0.01479884333369399</v>
+        <v>0.01385722057974141</v>
       </c>
       <c r="R10">
-        <v>23.06493072073195</v>
+        <v>22.35533206296145</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2364,55 +2375,55 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F11">
-        <v>40.72339365290858</v>
+        <v>40.7233621723202</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <v>8.758481331682836</v>
       </c>
       <c r="L11">
-        <v>5.66882284455368</v>
+        <v>5.698903360373681</v>
       </c>
       <c r="M11">
-        <v>3.522442119743165</v>
+        <v>3.541133279938754</v>
       </c>
       <c r="N11">
         <v>8758481.331682835</v>
       </c>
       <c r="O11">
-        <v>8737900.021451231</v>
+        <v>8737790.715949519</v>
       </c>
       <c r="P11">
-        <v>3.781158255889951</v>
+        <v>3.781201312621376</v>
       </c>
       <c r="Q11">
-        <v>0.006150757808060008</v>
+        <v>0.006150830898216045</v>
       </c>
       <c r="R11">
-        <v>21.12790022771637</v>
+        <v>21.12802868663587</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2420,55 +2431,55 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F12">
-        <v>40.72339365290858</v>
+        <v>40.7233621723202</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12">
         <v>8.758481331682836</v>
       </c>
       <c r="L12">
-        <v>5.66882284455368</v>
+        <v>5.698903360373681</v>
       </c>
       <c r="M12">
-        <v>3.522442119743165</v>
+        <v>3.541133279938754</v>
       </c>
       <c r="N12">
         <v>8758481.331682835</v>
       </c>
       <c r="O12">
-        <v>8737900.021451231</v>
+        <v>8737790.715949519</v>
       </c>
       <c r="P12">
-        <v>3.781158255889951</v>
+        <v>3.781201312621376</v>
       </c>
       <c r="Q12">
-        <v>0.006150757808060008</v>
+        <v>0.006150830898216045</v>
       </c>
       <c r="R12">
-        <v>21.12790022771637</v>
+        <v>21.12802868663587</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2476,55 +2487,55 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F13">
-        <v>81.44678735837621</v>
+        <v>81.44672440068831</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K13">
         <v>8.758481331682836</v>
       </c>
       <c r="L13">
-        <v>44.33117715544632</v>
+        <v>44.30109663962632</v>
       </c>
       <c r="M13">
-        <v>27.54610788025683</v>
+        <v>27.52741672006125</v>
       </c>
       <c r="N13">
-        <v>8737900.021451231</v>
+        <v>8737790.715949519</v>
       </c>
       <c r="O13">
-        <v>8094703.627161391</v>
+        <v>8095040.181448972</v>
       </c>
       <c r="P13">
-        <v>8.14662513356404</v>
+        <v>8.146288734679448</v>
       </c>
       <c r="Q13">
-        <v>0.01329112433581324</v>
+        <v>0.01329055478389363</v>
       </c>
       <c r="R13">
-        <v>21.92894700840945</v>
+        <v>21.92850272067318</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2532,31 +2543,31 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F14">
-        <v>81.44678736348403</v>
+        <v>81.44672442718483</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K14">
         <v>8.758481331682836</v>
@@ -2568,19 +2579,19 @@
         <v>31.06855</v>
       </c>
       <c r="N14">
-        <v>8094703.627161391</v>
+        <v>8095040.181448972</v>
       </c>
       <c r="O14">
-        <v>7303458.479126669</v>
+        <v>7303831.830031219</v>
       </c>
       <c r="P14">
-        <v>9.006903256452633</v>
+        <v>9.006446443679774</v>
       </c>
       <c r="Q14">
-        <v>0.01474946459506464</v>
+        <v>0.01474869018175421</v>
       </c>
       <c r="R14">
-        <v>23.05773590350923</v>
+        <v>23.05716007138336</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2588,16 +2599,16 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F15">
         <v>81.2283172755494</v>
@@ -2606,13 +2617,13 @@
         <v>650</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I15">
         <v>9.525</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K15">
         <v>8.758481331682836</v>
@@ -2644,16 +2655,16 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F16">
         <v>81.22831727261871</v>
@@ -2662,13 +2673,13 @@
         <v>650</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I16">
         <v>9.525</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K16">
         <v>8.758481331682836</v>
@@ -2702,7 +2713,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2710,96 +2721,96 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.006721992147452</v>
+        <v>1.136101394995565</v>
       </c>
       <c r="I2">
-        <v>2.144990742886482</v>
+        <v>41.38012804377173</v>
       </c>
       <c r="J2">
-        <v>0.2244234817079897</v>
+        <v>4.329469691141295</v>
       </c>
       <c r="K2">
-        <v>300.9563774400484</v>
+        <v>5805.905445214299</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2244234817079897</v>
+        <v>12.5</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2808,45 +2819,45 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>9953691.026075777</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R2">
-        <v>9953691.026075777</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>43.49597</v>
+        <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.20012868004435</v>
+        <v>1.125590536179768</v>
       </c>
       <c r="I3">
-        <v>59.64250577808644</v>
+        <v>31.44580841403419</v>
       </c>
       <c r="J3">
-        <v>6.240203529500931</v>
+        <v>3.290073783676666</v>
       </c>
       <c r="K3">
-        <v>8368.23773713134</v>
+        <v>4412.054745386083</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2872,34 +2883,34 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G4">
-        <v>124.2742</v>
+        <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.199989876396854</v>
+        <v>1.199162512979902</v>
       </c>
       <c r="I4">
-        <v>48.87527955292891</v>
+        <v>48.55529933446453</v>
       </c>
       <c r="J4">
-        <v>5.11366328414039</v>
+        <v>5.080184783152164</v>
       </c>
       <c r="K4">
-        <v>6857.524737297946</v>
+        <v>6812.629397902716</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2920,59 +2931,6 @@
         <v>16916025.69007904</v>
       </c>
       <c r="R4">
-        <v>16916025.69007904</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5">
-        <v>300</v>
-      </c>
-      <c r="G5">
-        <v>186.4113</v>
-      </c>
-      <c r="H5">
-        <v>1.199223813856768</v>
-      </c>
-      <c r="I5">
-        <v>48.5692970147525</v>
-      </c>
-      <c r="J5">
-        <v>5.081649315414824</v>
-      </c>
-      <c r="K5">
-        <v>6814.593364957586</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>12.5</v>
-      </c>
-      <c r="N5">
-        <v>0.78</v>
-      </c>
-      <c r="O5">
-        <v>0.357</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="R5">
         <v>16916025.69007904</v>
       </c>
     </row>
@@ -2983,7 +2941,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2999,7 +2957,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B2">
         <v>8700000</v>
@@ -3007,129 +2965,121 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B3">
-        <v>8758481.331682835</v>
+        <v>8550636.795147974</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B4">
-        <v>8727815.15089228</v>
+        <v>8381544.555242552</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B5">
-        <v>8006181.421302268</v>
+        <v>7709242.652340049</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B6">
-        <v>7297951.859094954</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B7">
-        <v>8758481.331682835</v>
+        <v>8551289.063336279</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B8">
-        <v>8568001.489479879</v>
+        <v>8397309.979201963</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B9">
-        <v>8511464.339344067</v>
+        <v>8359121.154769378</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B10">
-        <v>8094470.943925084</v>
+        <v>7781232.206703647</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B11">
-        <v>7298796.018164307</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B12">
-        <v>8758481.331682835</v>
+        <v>8737790.715949519</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B13">
-        <v>8737900.021451231</v>
+        <v>8095040.181448972</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B14">
-        <v>8094703.627161391</v>
+        <v>7303831.830031219</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B15">
-        <v>7303458.479126669</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B16">
-        <v>8758481.331682835</v>
+        <v>8035208.523622232</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B17">
-        <v>8035208.523622232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18">
         <v>7242028.792570359</v>
       </c>
     </row>
@@ -3171,13 +3121,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65833096821405</v>
+        <v>17.65833097540624</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -3186,15 +3136,15 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520464655607</v>
+        <v>1150.520465124211</v>
       </c>
       <c r="G2">
-        <v>5.61968367292574E-06</v>
+        <v>5.660413371801368E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>

--- a/examples/wangetal2018/out/ResultFiles/PL_0.5_b.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_0.5_b.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="222">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -396,6 +396,12 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01_pre_loop_cxn</t>
   </si>
   <si>
@@ -405,76 +411,202 @@
     <t>PI01_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
     <t>PI04</t>
   </si>
   <si>
-    <t>PI05_pre_loop_cxn</t>
+    <t>PI05_0_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_1_loop</t>
   </si>
   <si>
-    <t>PI05_post_loop_cxn</t>
-  </si>
-  <si>
-    <t>PI06_pre_loop_cxn</t>
+    <t>PI05_0_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
+    <t>PI05</t>
+  </si>
+  <si>
+    <t>PI06_0_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_2_loop</t>
   </si>
   <si>
-    <t>PI06_post_loop_cxn</t>
+    <t>PI06_0_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
+    <t>PI06</t>
+  </si>
+  <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
   </si>
   <si>
     <t>PI07</t>
   </si>
   <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
     <t>PI08</t>
   </si>
   <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
     <t>PI09</t>
   </si>
   <si>
+    <t>PS_0_loop_0</t>
+  </si>
+  <si>
+    <t>PS_1_loop_0</t>
+  </si>
+  <si>
+    <t>PS_1_loop_1</t>
+  </si>
+  <si>
+    <t>PS_1_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_3</t>
+  </si>
+  <si>
+    <t>PS_1_loop_4</t>
+  </si>
+  <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
+    <t>N01_0_</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_0</t>
   </si>
   <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N03_C_4</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
     <t>loop_cxn_node_ps_2</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
+    <t>N03_C_0_</t>
+  </si>
+  <si>
+    <t>N03_C_1</t>
+  </si>
+  <si>
+    <t>N03_C_2</t>
+  </si>
+  <si>
+    <t>N03_C_3</t>
   </si>
   <si>
     <t>N03</t>
@@ -1180,7 +1312,7 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.2638982914835435</v>
+        <v>0.268694040483426</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
@@ -1191,7 +1323,7 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.0703958137813657</v>
+        <v>0.07231145091202033</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
@@ -1213,7 +1345,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.03106142847345636</v>
+        <v>0.03105724584193417</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -1235,7 +1367,7 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.006418640477314341</v>
+        <v>0.006417776163942114</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -1246,7 +1378,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.01906177501619561</v>
+        <v>0.01981997494926803</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -1268,7 +1400,7 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>0.02253462569853349</v>
+        <v>0.02268617966448158</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1279,7 +1411,7 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.07479877717094516</v>
+        <v>0.07595175851375463</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1323,7 +1455,7 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>0.004408594693365441</v>
+        <v>0.004497944801123074</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
@@ -1334,7 +1466,7 @@
         <v>51</v>
       </c>
       <c r="B16">
-        <v>0.03430157686510901</v>
+        <v>0.03501982574470283</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
@@ -1345,7 +1477,7 @@
         <v>52</v>
       </c>
       <c r="B17">
-        <v>0.0009170593072584356</v>
+        <v>0.0009318838921992516</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1411,7 +1543,7 @@
         <v>58</v>
       </c>
       <c r="B23">
-        <v>129.6652997229703</v>
+        <v>133.2275011933645</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
@@ -1422,7 +1554,7 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>80.57025695416179</v>
+        <v>82.78370564402209</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -1452,7 +1584,7 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>2913.149659014491</v>
+        <v>2958.054232761457</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -1463,7 +1595,7 @@
         <v>61</v>
       </c>
       <c r="B28">
-        <v>121.3812357922704</v>
+        <v>123.252259698394</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -1485,7 +1617,7 @@
         <v>63</v>
       </c>
       <c r="B30">
-        <v>115012488.43889</v>
+        <v>118158161.9510192</v>
       </c>
       <c r="C30" t="s">
         <v>77</v>
@@ -1529,7 +1661,7 @@
         <v>67</v>
       </c>
       <c r="B34">
-        <v>31143076</v>
+        <v>32386182</v>
       </c>
       <c r="C34" t="s">
         <v>77</v>
@@ -1570,7 +1702,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>84</v>
@@ -1615,7 +1747,7 @@
         <v>700</v>
       </c>
       <c r="B47">
-        <v>32.07052964295256</v>
+        <v>32.78872526962797</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
@@ -1624,16 +1756,16 @@
         <v>93</v>
       </c>
       <c r="E47">
-        <v>19182107.78453216</v>
+        <v>19611676.80240133</v>
       </c>
       <c r="F47">
-        <v>8899852.945399495</v>
+        <v>9082208.299002036</v>
       </c>
       <c r="G47">
-        <v>3842986.064730738</v>
+        <v>3922420.878154588</v>
       </c>
       <c r="H47">
-        <v>604230.7712990289</v>
+        <v>617862.0906781822</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1641,7 +1773,7 @@
         <v>650</v>
       </c>
       <c r="B48">
-        <v>91.89586671964408</v>
+        <v>92.99135612562426</v>
       </c>
       <c r="C48" t="s">
         <v>84</v>
@@ -1650,16 +1782,16 @@
         <v>94</v>
       </c>
       <c r="E48">
-        <v>44902907.92159942</v>
+        <v>45438194.89022759</v>
       </c>
       <c r="F48">
-        <v>21337990.79247553</v>
+        <v>21570828.89558876</v>
       </c>
       <c r="G48">
-        <v>9316379.467365684</v>
+        <v>9418929.581070568</v>
       </c>
       <c r="H48">
-        <v>1654460.462727767</v>
+        <v>1674328.299828501</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1667,7 +1799,7 @@
         <v>650</v>
       </c>
       <c r="B49">
-        <v>5.698903360373681</v>
+        <v>7.447419798112271</v>
       </c>
       <c r="C49" t="s">
         <v>84</v>
@@ -1676,16 +1808,16 @@
         <v>94</v>
       </c>
       <c r="E49">
-        <v>2784644.641588119</v>
+        <v>3639019.004721424</v>
       </c>
       <c r="F49">
-        <v>1672278.6961793</v>
+        <v>2136678.093183482</v>
       </c>
       <c r="G49">
-        <v>714112.1395506071</v>
+        <v>914374.7993119049</v>
       </c>
       <c r="H49">
-        <v>100536.7514421188</v>
+        <v>131640.3168508887</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1724,7 +1856,7 @@
         <v>104</v>
       </c>
       <c r="B55">
-        <v>4.329469691141295</v>
+        <v>4.399280149586239</v>
       </c>
       <c r="C55">
         <v>12.5</v>
@@ -1739,7 +1871,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G55">
-        <v>41.38012804377173</v>
+        <v>42.04736119594207</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1750,7 +1882,7 @@
         <v>105</v>
       </c>
       <c r="B56">
-        <v>3.290073783676666</v>
+        <v>3.342197626835902</v>
       </c>
       <c r="C56">
         <v>12.5</v>
@@ -1765,7 +1897,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>31.44580841403419</v>
+        <v>31.94399675069722</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1776,7 +1908,7 @@
         <v>106</v>
       </c>
       <c r="B57">
-        <v>5.080184783152164</v>
+        <v>5.154009694385468</v>
       </c>
       <c r="C57">
         <v>12.5</v>
@@ -1791,7 +1923,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>48.55529933446453</v>
+        <v>49.26090175175478</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1804,7 +1936,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1874,16 +2006,16 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F2">
-        <v>45.99112260571709</v>
+        <v>45.99473721793159</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1901,25 +2033,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L2">
-        <v>32.07052964295256</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>19.92769707477107</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>8700000</v>
       </c>
       <c r="O2">
-        <v>8550636.795147974</v>
+        <v>8637483.957455259</v>
       </c>
       <c r="P2">
-        <v>4.361215457439502</v>
+        <v>4.341307640092817</v>
       </c>
       <c r="Q2">
-        <v>0.00710037583314457</v>
+        <v>0.00702471734304428</v>
       </c>
       <c r="R2">
-        <v>21.35163525326402</v>
+        <v>21.36930161049543</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1930,52 +2062,52 @@
         <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="F3">
-        <v>53.4418036183251</v>
+        <v>45.99473748402413</v>
       </c>
       <c r="G3">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I3">
-        <v>15.875</v>
+        <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K3">
-        <v>9.479348269320552</v>
+        <v>8.758481331682836</v>
       </c>
       <c r="L3">
-        <v>32.07052964295256</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M3">
-        <v>19.92769707477107</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N3">
-        <v>8700000</v>
+        <v>8637483.957455259</v>
       </c>
       <c r="O3">
-        <v>8550636.795147974</v>
+        <v>8574518.703073688</v>
       </c>
       <c r="P3">
-        <v>4.51533340696271</v>
+        <v>4.344959993673042</v>
       </c>
       <c r="Q3">
-        <v>0.007351291059628438</v>
+        <v>0.007032309718229565</v>
       </c>
       <c r="R3">
-        <v>21.35163525326402</v>
+        <v>21.44649086420791</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1986,16 +2118,16 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F4">
-        <v>99.43306994033647</v>
+        <v>45.99473768330024</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -2013,25 +2145,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L4">
-        <v>7.929470357047443</v>
+        <v>6.1220586029613</v>
       </c>
       <c r="M4">
-        <v>4.927142925228927</v>
+        <v>3.804069676180666</v>
       </c>
       <c r="N4">
-        <v>8550636.795147974</v>
+        <v>8574518.703073688</v>
       </c>
       <c r="O4">
-        <v>8381544.555242552</v>
+        <v>8545454.764616504</v>
       </c>
       <c r="P4">
-        <v>9.614075172817062</v>
+        <v>4.346640117433901</v>
       </c>
       <c r="Q4">
-        <v>0.01566452655497848</v>
+        <v>0.007035809707724257</v>
       </c>
       <c r="R4">
-        <v>21.56016735547595</v>
+        <v>21.48240370135183</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2042,72 +2174,72 @@
         <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="F5">
-        <v>99.4330584000413</v>
+        <v>53.44600157962068</v>
       </c>
       <c r="G5">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I5">
-        <v>9.525</v>
+        <v>15.875</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K5">
-        <v>8.758481331682836</v>
+        <v>9.479348269320552</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>16.39436263481398</v>
       </c>
       <c r="M5">
-        <v>18.64113</v>
+        <v>10.186981504757</v>
       </c>
       <c r="N5">
-        <v>8381544.555242552</v>
+        <v>8623068.647796473</v>
       </c>
       <c r="O5">
-        <v>7709242.652340049</v>
+        <v>8545454.764616504</v>
       </c>
       <c r="P5">
-        <v>10.43048729619992</v>
+        <v>4.501795982368248</v>
       </c>
       <c r="Q5">
-        <v>0.01704785265084099</v>
+        <v>0.007284803343584625</v>
       </c>
       <c r="R5">
-        <v>22.45694267517919</v>
+        <v>21.48240370135183</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F6">
-        <v>55.04368274392632</v>
+        <v>99.4405627762754</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2125,45 +2257,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L6">
-        <v>31.5</v>
+        <v>7.211274730372034</v>
       </c>
       <c r="M6">
-        <v>19.5731865</v>
+        <v>4.480876990486001</v>
       </c>
       <c r="N6">
-        <v>8758481.331682835</v>
+        <v>8545454.764616504</v>
       </c>
       <c r="O6">
-        <v>8551289.063336279</v>
+        <v>8389865.57594073</v>
       </c>
       <c r="P6">
-        <v>5.219222471791478</v>
+        <v>9.399302462094868</v>
       </c>
       <c r="Q6">
-        <v>0.008497248342362911</v>
+        <v>0.01522356934168977</v>
       </c>
       <c r="R6">
-        <v>21.35084301705652</v>
+        <v>21.67777376870853</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F7">
-        <v>37.38535176852008</v>
+        <v>99.44056516732822</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2181,45 +2313,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L7">
-        <v>48.5</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>30.1364935</v>
+        <v>9.320565</v>
       </c>
       <c r="N7">
-        <v>8551289.063336279</v>
+        <v>8389865.57594073</v>
       </c>
       <c r="O7">
-        <v>8397309.979201963</v>
+        <v>8056751.431977627</v>
       </c>
       <c r="P7">
-        <v>3.608107665252088</v>
+        <v>9.408229002040082</v>
       </c>
       <c r="Q7">
-        <v>0.005878382573573595</v>
+        <v>0.0152575645134236</v>
       </c>
       <c r="R7">
-        <v>21.54045504602512</v>
+        <v>22.11543584734113</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F8">
-        <v>37.38535175785896</v>
+        <v>99.44056969902722</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2237,25 +2369,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L8">
-        <v>11.89586671964408</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>7.391746599451961</v>
+        <v>9.320565</v>
       </c>
       <c r="N8">
-        <v>8397309.979201963</v>
+        <v>8056751.431977627</v>
       </c>
       <c r="O8">
-        <v>8359121.154769378</v>
+        <v>7709444.461849388</v>
       </c>
       <c r="P8">
-        <v>3.624154488146958</v>
+        <v>9.417205953554939</v>
       </c>
       <c r="Q8">
-        <v>0.005905560890423973</v>
+        <v>0.01529252781608227</v>
       </c>
       <c r="R8">
-        <v>21.58830179701798</v>
+        <v>22.60229530680168</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2266,16 +2398,16 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="F9">
-        <v>44.20282285686235</v>
+        <v>55.08397481196806</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2293,25 +2425,25 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L9">
-        <v>91.89586671964408</v>
+        <v>15.75</v>
       </c>
       <c r="M9">
-        <v>57.10142659945196</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N9">
         <v>8758481.331682835</v>
       </c>
       <c r="O9">
-        <v>8359121.154769378</v>
+        <v>8654152.340316895</v>
       </c>
       <c r="P9">
-        <v>4.285043523375908</v>
+        <v>5.166021866667543</v>
       </c>
       <c r="Q9">
-        <v>0.006982479783402428</v>
+        <v>0.008358669128977186</v>
       </c>
       <c r="R9">
-        <v>21.58830179701798</v>
+        <v>21.34900693280152</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2322,16 +2454,16 @@
         <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F10">
-        <v>81.58817852473526</v>
+        <v>55.0839748249386</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2349,45 +2481,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L10">
-        <v>38.10413328035592</v>
+        <v>15.75</v>
       </c>
       <c r="M10">
-        <v>23.67680340054804</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N10">
-        <v>8359121.154769378</v>
+        <v>8654152.340316895</v>
       </c>
       <c r="O10">
-        <v>7781232.206703647</v>
+        <v>8548569.829930831</v>
       </c>
       <c r="P10">
-        <v>8.481209847593348</v>
+        <v>5.171090791798439</v>
       </c>
       <c r="Q10">
-        <v>0.01385722057974141</v>
+        <v>0.008370229996549476</v>
       </c>
       <c r="R10">
-        <v>22.35533206296145</v>
+        <v>21.47854593864077</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F11">
-        <v>40.7233621723202</v>
+        <v>37.42564587110959</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -2405,45 +2537,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L11">
-        <v>5.698903360373681</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M11">
-        <v>3.541133279938754</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N11">
-        <v>8758481.331682835</v>
+        <v>8548569.829930831</v>
       </c>
       <c r="O11">
-        <v>8737790.715949519</v>
+        <v>8496821.304822553</v>
       </c>
       <c r="P11">
-        <v>3.781201312621376</v>
+        <v>3.516934390934758</v>
       </c>
       <c r="Q11">
-        <v>0.006150830898216045</v>
+        <v>0.005693844904485012</v>
       </c>
       <c r="R11">
-        <v>21.12802868663587</v>
+        <v>21.54290324847172</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="F12">
-        <v>40.7233621723202</v>
+        <v>37.42564587548437</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -2461,45 +2593,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L12">
-        <v>5.698903360373681</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M12">
-        <v>3.541133279938754</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N12">
-        <v>8758481.331682835</v>
+        <v>8496821.304822553</v>
       </c>
       <c r="O12">
-        <v>8737790.715949519</v>
+        <v>8444760.320431868</v>
       </c>
       <c r="P12">
-        <v>3.781201312621376</v>
+        <v>3.520490920124171</v>
       </c>
       <c r="Q12">
-        <v>0.006150830898216045</v>
+        <v>0.005700746354440542</v>
       </c>
       <c r="R12">
-        <v>21.12802868663587</v>
+        <v>21.60823644980927</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F13">
-        <v>81.44672440068831</v>
+        <v>37.42564587997432</v>
       </c>
       <c r="G13">
         <v>650</v>
@@ -2517,45 +2649,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L13">
-        <v>44.30109663962632</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M13">
-        <v>27.52741672006125</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N13">
-        <v>8737790.715949519</v>
+        <v>8444760.320431868</v>
       </c>
       <c r="O13">
-        <v>8095040.181448972</v>
+        <v>8392381.147548374</v>
       </c>
       <c r="P13">
-        <v>8.146288734679448</v>
+        <v>3.524058324003394</v>
       </c>
       <c r="Q13">
-        <v>0.01329055478389363</v>
+        <v>0.00570768119619223</v>
       </c>
       <c r="R13">
-        <v>21.92850272067318</v>
+        <v>21.6745725065349</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F14">
-        <v>81.44672442718483</v>
+        <v>37.42564588412532</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -2573,45 +2705,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>12.99135612562425</v>
       </c>
       <c r="M14">
-        <v>31.06855</v>
+        <v>8.072451947135265</v>
       </c>
       <c r="N14">
-        <v>8095040.181448972</v>
+        <v>8392381.147548374</v>
       </c>
       <c r="O14">
-        <v>7303831.830031219</v>
+        <v>8350055.242216749</v>
       </c>
       <c r="P14">
-        <v>9.006446443679774</v>
+        <v>3.526932969077828</v>
       </c>
       <c r="Q14">
-        <v>0.01474869018175421</v>
+        <v>0.005713278463768443</v>
       </c>
       <c r="R14">
-        <v>23.05716007138336</v>
+        <v>21.72862513667716</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="F15">
-        <v>81.2283172755494</v>
+        <v>44.1679360933032</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -2629,45 +2761,45 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>15.49855935427071</v>
       </c>
       <c r="M15">
-        <v>31.06855</v>
+        <v>9.630355324522546</v>
       </c>
       <c r="N15">
-        <v>8758481.331682835</v>
+        <v>8419481.824335909</v>
       </c>
       <c r="O15">
-        <v>8035208.523622232</v>
+        <v>8350055.242216749</v>
       </c>
       <c r="P15">
-        <v>8.183405372037651</v>
+        <v>4.164117758704096</v>
       </c>
       <c r="Q15">
-        <v>0.01335481503561002</v>
+        <v>0.006743633582956256</v>
       </c>
       <c r="R15">
-        <v>22.00792998580562</v>
+        <v>21.72862513667716</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F16">
-        <v>81.22831727261871</v>
+        <v>81.59357741552101</v>
       </c>
       <c r="G16">
         <v>650</v>
@@ -2685,25 +2817,1257 @@
         <v>8.758481331682836</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>3.675310541042418</v>
       </c>
       <c r="M16">
-        <v>31.06855</v>
+        <v>2.283731386198069</v>
       </c>
       <c r="N16">
-        <v>8035208.523622232</v>
+        <v>8350055.242216749</v>
       </c>
       <c r="O16">
-        <v>7242028.792570359</v>
+        <v>8295307.064608585</v>
       </c>
       <c r="P16">
-        <v>9.057192267726467</v>
+        <v>7.690036252303763</v>
       </c>
       <c r="Q16">
-        <v>0.01483618333967321</v>
+        <v>0.01245975815764705</v>
       </c>
       <c r="R16">
-        <v>23.15308983834977</v>
+        <v>21.79914531438007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17">
+        <v>81.59357745947294</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17">
+        <v>9.525</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M17">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N17">
+        <v>8295307.064608585</v>
+      </c>
+      <c r="O17">
+        <v>8042424.68748547</v>
+      </c>
+      <c r="P17">
+        <v>7.698101563345274</v>
+      </c>
+      <c r="Q17">
+        <v>0.01248489589633593</v>
+      </c>
+      <c r="R17">
+        <v>22.13487912561428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18">
+        <v>81.59357760413815</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M18">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N18">
+        <v>8042424.68748547</v>
+      </c>
+      <c r="O18">
+        <v>7781434.446911956</v>
+      </c>
+      <c r="P18">
+        <v>7.706192484952793</v>
+      </c>
+      <c r="Q18">
+        <v>0.01251060222737875</v>
+      </c>
+      <c r="R18">
+        <v>22.49858291651012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19">
+        <v>40.72494906188017</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L19">
+        <v>7.447419798112271</v>
+      </c>
+      <c r="M19">
+        <v>4.627610687372821</v>
+      </c>
+      <c r="N19">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O19">
+        <v>8731121.892534796</v>
+      </c>
+      <c r="P19">
+        <v>3.817397532988216</v>
+      </c>
+      <c r="Q19">
+        <v>0.006174731003855139</v>
+      </c>
+      <c r="R19">
+        <v>21.25624850039313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20">
+        <v>40.72494906188017</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L20">
+        <v>7.447419798112271</v>
+      </c>
+      <c r="M20">
+        <v>4.627610687372821</v>
+      </c>
+      <c r="N20">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O20">
+        <v>8731121.892534796</v>
+      </c>
+      <c r="P20">
+        <v>3.817397532988216</v>
+      </c>
+      <c r="Q20">
+        <v>0.006174731003855139</v>
+      </c>
+      <c r="R20">
+        <v>21.25624850039313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21">
+        <v>81.4498980202839</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L21">
+        <v>9.219246868554396</v>
+      </c>
+      <c r="M21">
+        <v>5.728572645960514</v>
+      </c>
+      <c r="N21">
+        <v>8731121.892534796</v>
+      </c>
+      <c r="O21">
+        <v>8599597.649154212</v>
+      </c>
+      <c r="P21">
+        <v>7.636739770424732</v>
+      </c>
+      <c r="Q21">
+        <v>0.012358869020308</v>
+      </c>
+      <c r="R21">
+        <v>21.41564641330918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22">
+        <v>81.44989802351084</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>8599597.649154212</v>
+      </c>
+      <c r="O22">
+        <v>8356652.041995633</v>
+      </c>
+      <c r="P22">
+        <v>7.644665577335017</v>
+      </c>
+      <c r="Q22">
+        <v>0.01238327458220428</v>
+      </c>
+      <c r="R22">
+        <v>21.72017403461415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23">
+        <v>81.44989802494135</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>8356652.041995633</v>
+      </c>
+      <c r="O23">
+        <v>8106536.917194087</v>
+      </c>
+      <c r="P23">
+        <v>7.652616256332494</v>
+      </c>
+      <c r="Q23">
+        <v>0.01240807181483748</v>
+      </c>
+      <c r="R23">
+        <v>22.04826664257107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24">
+        <v>81.44989802693281</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M24">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N24">
+        <v>8106536.917194087</v>
+      </c>
+      <c r="O24">
+        <v>7848557.212252294</v>
+      </c>
+      <c r="P24">
+        <v>7.660591938905171</v>
+      </c>
+      <c r="Q24">
+        <v>0.01243342031636639</v>
+      </c>
+      <c r="R24">
+        <v>22.40315760156514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25">
+        <v>81.44989802773802</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M25">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N25">
+        <v>7848557.212252294</v>
+      </c>
+      <c r="O25">
+        <v>7581908.064056782</v>
+      </c>
+      <c r="P25">
+        <v>7.668592756139551</v>
+      </c>
+      <c r="Q25">
+        <v>0.01245906542436802</v>
+      </c>
+      <c r="R25">
+        <v>22.78960602812258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26">
+        <v>81.44989803509688</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M26">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N26">
+        <v>7581908.064056782</v>
+      </c>
+      <c r="O26">
+        <v>7305639.245099122</v>
+      </c>
+      <c r="P26">
+        <v>7.676618843390404</v>
+      </c>
+      <c r="Q26">
+        <v>0.01248531050188344</v>
+      </c>
+      <c r="R26">
+        <v>23.21240678617136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27">
+        <v>81.22831727461987</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M27">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N27">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O27">
+        <v>8521286.261920173</v>
+      </c>
+      <c r="P27">
+        <v>7.642201035385788</v>
+      </c>
+      <c r="Q27">
+        <v>0.01237140556429809</v>
+      </c>
+      <c r="R27">
+        <v>21.51240528201961</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28">
+        <v>81.22831727412577</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M28">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N28">
+        <v>8521286.261920173</v>
+      </c>
+      <c r="O28">
+        <v>8277398.373416154</v>
+      </c>
+      <c r="P28">
+        <v>7.650187816155493</v>
+      </c>
+      <c r="Q28">
+        <v>0.01239606580162123</v>
+      </c>
+      <c r="R28">
+        <v>21.82236264942035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29">
+        <v>81.22831727410751</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M29">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N29">
+        <v>8277398.373416154</v>
+      </c>
+      <c r="O29">
+        <v>8026207.197355519</v>
+      </c>
+      <c r="P29">
+        <v>7.658199836841772</v>
+      </c>
+      <c r="Q29">
+        <v>0.01242095934228911</v>
+      </c>
+      <c r="R29">
+        <v>22.15695039596588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30">
+        <v>81.22831727409383</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L30">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M30">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N30">
+        <v>8026207.197355519</v>
+      </c>
+      <c r="O30">
+        <v>7767001.52835057</v>
+      </c>
+      <c r="P30">
+        <v>7.666237230806654</v>
+      </c>
+      <c r="Q30">
+        <v>0.01244641791139907</v>
+      </c>
+      <c r="R30">
+        <v>22.5192612824379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31">
+        <v>81.22831727405887</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31">
+        <v>9.525</v>
+      </c>
+      <c r="J31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L31">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M31">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N31">
+        <v>7767001.52835057</v>
+      </c>
+      <c r="O31">
+        <v>7498940.920289172</v>
+      </c>
+      <c r="P31">
+        <v>7.674300132563858</v>
+      </c>
+      <c r="Q31">
+        <v>0.01247234975643298</v>
+      </c>
+      <c r="R31">
+        <v>22.91398842900221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32">
+        <v>81.22831727401191</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32">
+        <v>9.525</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L32">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M32">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N32">
+        <v>7498940.920289172</v>
+      </c>
+      <c r="O32">
+        <v>7221038.466517587</v>
+      </c>
+      <c r="P32">
+        <v>7.682388677641129</v>
+      </c>
+      <c r="Q32">
+        <v>0.01249873002705697</v>
+      </c>
+      <c r="R32">
+        <v>23.34681789869666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33">
+        <v>53.44600119924708</v>
+      </c>
+      <c r="G33">
+        <v>700</v>
+      </c>
+      <c r="H33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33">
+        <v>15.875</v>
+      </c>
+      <c r="J33" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33">
+        <v>9.479348269320552</v>
+      </c>
+      <c r="L33">
+        <v>16.39436263481398</v>
+      </c>
+      <c r="M33">
+        <v>10.186981504757</v>
+      </c>
+      <c r="N33">
+        <v>8700000</v>
+      </c>
+      <c r="O33">
+        <v>8623068.647796473</v>
+      </c>
+      <c r="P33">
+        <v>4.501795892294508</v>
+      </c>
+      <c r="Q33">
+        <v>0.007284803197827357</v>
+      </c>
+      <c r="R33">
+        <v>21.38689979691938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34">
+        <v>44.16793605869889</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34">
+        <v>9.525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L34">
+        <v>15.49855935427071</v>
+      </c>
+      <c r="M34">
+        <v>9.630355324522546</v>
+      </c>
+      <c r="N34">
+        <v>8758481.331682835</v>
+      </c>
+      <c r="O34">
+        <v>8691723.222765062</v>
+      </c>
+      <c r="P34">
+        <v>4.180450046884728</v>
+      </c>
+      <c r="Q34">
+        <v>0.006763024111287809</v>
+      </c>
+      <c r="R34">
+        <v>21.30354288124985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35">
+        <v>44.1679360646841</v>
+      </c>
+      <c r="G35">
+        <v>650</v>
+      </c>
+      <c r="H35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35">
+        <v>9.525</v>
+      </c>
+      <c r="J35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L35">
+        <v>15.49855935427071</v>
+      </c>
+      <c r="M35">
+        <v>9.630355324522546</v>
+      </c>
+      <c r="N35">
+        <v>8691723.222765062</v>
+      </c>
+      <c r="O35">
+        <v>8624457.005408032</v>
+      </c>
+      <c r="P35">
+        <v>4.180450048743216</v>
+      </c>
+      <c r="Q35">
+        <v>0.006763024114294423</v>
+      </c>
+      <c r="R35">
+        <v>21.38520299990014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36">
+        <v>44.16793607148988</v>
+      </c>
+      <c r="G36">
+        <v>650</v>
+      </c>
+      <c r="H36" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36">
+        <v>9.525</v>
+      </c>
+      <c r="J36" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L36">
+        <v>15.49855935427071</v>
+      </c>
+      <c r="M36">
+        <v>9.630355324522546</v>
+      </c>
+      <c r="N36">
+        <v>8624457.005408032</v>
+      </c>
+      <c r="O36">
+        <v>8556669.65077368</v>
+      </c>
+      <c r="P36">
+        <v>4.176344250437926</v>
+      </c>
+      <c r="Q36">
+        <v>0.006758121971052785</v>
+      </c>
+      <c r="R36">
+        <v>21.46852466901916</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37">
+        <v>44.1679360785292</v>
+      </c>
+      <c r="G37">
+        <v>650</v>
+      </c>
+      <c r="H37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37">
+        <v>9.525</v>
+      </c>
+      <c r="J37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L37">
+        <v>15.49855935427071</v>
+      </c>
+      <c r="M37">
+        <v>9.630355324522546</v>
+      </c>
+      <c r="N37">
+        <v>8556669.65077368</v>
+      </c>
+      <c r="O37">
+        <v>8488348.855494654</v>
+      </c>
+      <c r="P37">
+        <v>4.172256724740134</v>
+      </c>
+      <c r="Q37">
+        <v>0.006753249745562413</v>
+      </c>
+      <c r="R37">
+        <v>21.55349526392321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38">
+        <v>44.16793608581029</v>
+      </c>
+      <c r="G38">
+        <v>650</v>
+      </c>
+      <c r="H38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38">
+        <v>9.525</v>
+      </c>
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38">
+        <v>8.758481331682836</v>
+      </c>
+      <c r="L38">
+        <v>15.49855935427071</v>
+      </c>
+      <c r="M38">
+        <v>9.630355324522546</v>
+      </c>
+      <c r="N38">
+        <v>8488348.855494654</v>
+      </c>
+      <c r="O38">
+        <v>8419481.824335909</v>
+      </c>
+      <c r="P38">
+        <v>4.168181247238272</v>
+      </c>
+      <c r="Q38">
+        <v>0.006748420073239439</v>
+      </c>
+      <c r="R38">
+        <v>21.6401744681449</v>
       </c>
     </row>
   </sheetData>
@@ -2721,7 +4085,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2736,43 +4100,43 @@
         <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2780,13 +4144,13 @@
         <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2795,16 +4159,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.136101394995565</v>
+        <v>1.136071655360469</v>
       </c>
       <c r="I2">
-        <v>41.38012804377173</v>
+        <v>42.04736119594207</v>
       </c>
       <c r="J2">
-        <v>4.329469691141295</v>
+        <v>4.399280149586239</v>
       </c>
       <c r="K2">
-        <v>5805.905445214299</v>
+        <v>5899.522666198138</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2833,13 +4197,13 @@
         <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2848,16 +4212,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.125590536179768</v>
+        <v>1.125561281976566</v>
       </c>
       <c r="I3">
-        <v>31.44580841403419</v>
+        <v>31.94399675069722</v>
       </c>
       <c r="J3">
-        <v>3.290073783676666</v>
+        <v>3.342197626835902</v>
       </c>
       <c r="K3">
-        <v>4412.054745386083</v>
+        <v>4481.953861539481</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2886,31 +4250,31 @@
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.199162512979902</v>
+        <v>1.198865840187541</v>
       </c>
       <c r="I4">
-        <v>48.55529933446453</v>
+        <v>49.26090175175478</v>
       </c>
       <c r="J4">
-        <v>5.080184783152164</v>
+        <v>5.154009694385468</v>
       </c>
       <c r="K4">
-        <v>6812.629397902716</v>
+        <v>6911.6300803648</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2941,7 +4305,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2949,15 +4313,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B2">
         <v>8700000</v>
@@ -2965,122 +4329,298 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B3">
-        <v>8550636.795147974</v>
+        <v>8637483.957455259</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B4">
-        <v>8381544.555242552</v>
+        <v>8574518.703073688</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B5">
-        <v>7709242.652340049</v>
+        <v>8545454.764616504</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B6">
-        <v>8758481.331682835</v>
+        <v>8389865.57594073</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B7">
-        <v>8551289.063336279</v>
+        <v>8056751.431977627</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="B8">
-        <v>8397309.979201963</v>
+        <v>7709444.461849388</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B9">
-        <v>8359121.154769378</v>
+        <v>8758481.331682835</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B10">
-        <v>7781232.206703647</v>
+        <v>8654152.340316895</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B11">
-        <v>8758481.331682835</v>
+        <v>8548569.829930831</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B12">
-        <v>8737790.715949519</v>
+        <v>8496821.304822553</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B13">
-        <v>8095040.181448972</v>
+        <v>8444760.320431868</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B14">
-        <v>7303831.830031219</v>
+        <v>8392381.147548374</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B15">
-        <v>8758481.331682835</v>
+        <v>8350055.242216749</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B16">
-        <v>8035208.523622232</v>
+        <v>8295307.064608585</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B17">
-        <v>7242028.792570359</v>
+        <v>8042424.68748547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18">
+        <v>7781434.446911956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19">
+        <v>8758481.331682835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20">
+        <v>8731121.892534796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21">
+        <v>8599597.649154212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22">
+        <v>8356652.041995633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23">
+        <v>8106536.917194087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24">
+        <v>7848557.212252294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25">
+        <v>7581908.064056782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26">
+        <v>7305639.245099122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27">
+        <v>8758481.331682835</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28">
+        <v>8521286.261920173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29">
+        <v>8277398.373416154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30">
+        <v>8026207.197355519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31">
+        <v>7767001.52835057</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32">
+        <v>7498940.920289172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33">
+        <v>7221038.466517587</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34">
+        <v>8623068.647796473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35">
+        <v>8691723.222765062</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36">
+        <v>8624457.005408032</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37">
+        <v>8556669.65077368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38">
+        <v>8488348.855494654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39">
+        <v>8419481.824335909</v>
       </c>
     </row>
   </sheetData>
@@ -3098,36 +4638,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65833097540624</v>
+        <v>17.65832895382901</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -3136,21 +4676,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520465124211</v>
+        <v>1150.520333409272</v>
       </c>
       <c r="G2">
-        <v>5.660413371801368E-06</v>
+        <v>-5.787878928267179E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
       </c>
       <c r="C3">
-        <v>45.91165732194755</v>
+        <v>45.91165732273501</v>
       </c>
       <c r="D3">
         <v>65.15454188318284</v>
@@ -3159,21 +4699,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.35299990917</v>
+        <v>2991.352999960477</v>
       </c>
       <c r="G3">
-        <v>-3.036419763478788E-09</v>
+        <v>-1.321258445384125E-09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>
       </c>
       <c r="C4">
-        <v>35.31665995067117</v>
+        <v>35.31665995127691</v>
       </c>
       <c r="D4">
         <v>65.15454188318284</v>
@@ -3182,10 +4722,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799930131</v>
+        <v>2301.040799969598</v>
       </c>
       <c r="G4">
-        <v>-3.036408889463966E-09</v>
+        <v>-1.321247594304226E-09</v>
       </c>
     </row>
   </sheetData>
